--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Gpr135.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Gpr135.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.162473</v>
+        <v>0.229551</v>
       </c>
       <c r="N2">
-        <v>0.487419</v>
+        <v>0.6886530000000001</v>
       </c>
       <c r="O2">
-        <v>0.04394435818899683</v>
+        <v>0.0620874463138416</v>
       </c>
       <c r="P2">
-        <v>0.0458186603085805</v>
+        <v>0.06432727452414699</v>
       </c>
       <c r="Q2">
-        <v>0.02463913876533334</v>
+        <v>0.03481156218400001</v>
       </c>
       <c r="R2">
-        <v>0.221752248888</v>
+        <v>0.3133040596560001</v>
       </c>
       <c r="S2">
-        <v>0.04394435818899683</v>
+        <v>0.0620874463138416</v>
       </c>
       <c r="T2">
-        <v>0.0458186603085805</v>
+        <v>0.06432727452414699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>9.092781</v>
       </c>
       <c r="O3">
-        <v>0.8197801587506947</v>
+        <v>0.8197852215571831</v>
       </c>
       <c r="P3">
-        <v>0.8547451861731179</v>
+        <v>0.8493592848284227</v>
       </c>
       <c r="Q3">
         <v>0.4596421001680001</v>
@@ -638,10 +638,10 @@
         <v>4.136778901512001</v>
       </c>
       <c r="S3">
-        <v>0.8197801587506947</v>
+        <v>0.8197852215571831</v>
       </c>
       <c r="T3">
-        <v>0.8547451861731179</v>
+        <v>0.8493592848284227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02665766666666667</v>
+        <v>0.01067566666666667</v>
       </c>
       <c r="N4">
-        <v>0.079973</v>
+        <v>0.032027</v>
       </c>
       <c r="O4">
-        <v>0.007210146008769957</v>
+        <v>0.00288748418012178</v>
       </c>
       <c r="P4">
-        <v>0.007517671081468118</v>
+        <v>0.002991651268759238</v>
       </c>
       <c r="Q4">
-        <v>0.004042652921777778</v>
+        <v>0.001618971967111111</v>
       </c>
       <c r="R4">
-        <v>0.036383876296</v>
+        <v>0.014570747704</v>
       </c>
       <c r="S4">
-        <v>0.007210146008769957</v>
+        <v>0.00288748418012178</v>
       </c>
       <c r="T4">
-        <v>0.007517671081468118</v>
+        <v>0.002991651268759238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.453729</v>
+        <v>0.3862035</v>
       </c>
       <c r="N5">
-        <v>0.907458</v>
+        <v>0.772407</v>
       </c>
       <c r="O5">
-        <v>0.1227208809878278</v>
+        <v>0.1044577852959374</v>
       </c>
       <c r="P5">
-        <v>0.08530342445884105</v>
+        <v>0.0721507597198775</v>
       </c>
       <c r="Q5">
-        <v>0.06880830533600001</v>
+        <v>0.058568018244</v>
       </c>
       <c r="R5">
-        <v>0.412849832016</v>
+        <v>0.351408109464</v>
       </c>
       <c r="S5">
-        <v>0.1227208809878278</v>
+        <v>0.1044577852959374</v>
       </c>
       <c r="T5">
-        <v>0.08530342445884105</v>
+        <v>0.0721507597198775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.023457</v>
+        <v>0.03986366666666667</v>
       </c>
       <c r="N6">
-        <v>0.070371</v>
+        <v>0.119591</v>
       </c>
       <c r="O6">
-        <v>0.006344456063710886</v>
+        <v>0.0107820626529161</v>
       </c>
       <c r="P6">
-        <v>0.006615057977992484</v>
+        <v>0.01117102965879371</v>
       </c>
       <c r="Q6">
-        <v>0.003557269688000001</v>
+        <v>0.006045351625777779</v>
       </c>
       <c r="R6">
-        <v>0.03201542719200001</v>
+        <v>0.054408164632</v>
       </c>
       <c r="S6">
-        <v>0.006344456063710886</v>
+        <v>0.0107820626529161</v>
       </c>
       <c r="T6">
-        <v>0.006615057977992484</v>
+        <v>0.01117102965879371</v>
       </c>
     </row>
   </sheetData>
